--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1152.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1152.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.954998735519792</v>
+        <v>1.16169548034668</v>
       </c>
       <c r="B1">
-        <v>2.202097175484984</v>
+        <v>2.414951801300049</v>
       </c>
       <c r="C1">
-        <v>2.352177868952378</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.311849959760698</v>
+        <v>2.380393505096436</v>
       </c>
       <c r="E1">
-        <v>1.381758099928842</v>
+        <v>1.231752872467041</v>
       </c>
     </row>
   </sheetData>
